--- a/Practice/IndexExample1.xlsx
+++ b/Practice/IndexExample1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddhiradadiya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddhiradadiya/Documents/GitHub/Tops-DA/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7461BC89-A165-1B43-B9CD-F9125EE00008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9969FFE0-B1B7-5649-AA20-1CE1337EAF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATCH &amp; INDEX" sheetId="1" r:id="rId1"/>
@@ -428,6 +428,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -450,8 +452,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -711,17 +711,17 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -739,14 +739,14 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="P3" s="3"/>
@@ -766,7 +766,7 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
@@ -807,7 +807,7 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2">
         <v>100</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="2">
         <v>200</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="2">
         <v>300</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2">
         <v>400</v>
       </c>
@@ -951,7 +951,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="2">
         <v>500</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="2">
         <v>600</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="2">
         <v>700</v>
       </c>
@@ -1110,14 +1110,14 @@
       <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2423,7 +2423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="194" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2513,10 +2513,10 @@
       <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2568,10 +2568,10 @@
       <c r="F7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="24" t="s">
         <v>26</v>
       </c>
     </row>
